--- a/SchemeIBMEMR/SchemeIBMEMR.xlsx
+++ b/SchemeIBMEMR/SchemeIBMEMR.xlsx
@@ -569,31 +569,31 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001558775</v>
+        <v>0.0016277</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002262908</v>
+        <v>0.002371879</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005033714</v>
+        <v>0.005420547</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002773014</v>
+        <v>0.003001069</v>
       </c>
       <c r="L2" t="n">
-        <v>0.027648292</v>
+        <v>0.029437734</v>
       </c>
       <c r="M2" t="n">
-        <v>0.003753279</v>
+        <v>0.00574437</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003732358</v>
+        <v>0.001713008</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
@@ -605,7 +605,7 @@
         <v>174</v>
       </c>
       <c r="R2" t="n">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="S2" t="n">
         <v>180</v>
@@ -642,31 +642,31 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00157003</v>
+        <v>0.001647577</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002286359</v>
+        <v>0.002458063</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005052806</v>
+        <v>0.005503736</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002791365</v>
+        <v>0.003051376</v>
       </c>
       <c r="L3" t="n">
-        <v>0.052583855</v>
+        <v>0.057559318</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003725137</v>
+        <v>0.005885219</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003723671</v>
+        <v>0.001733017</v>
       </c>
       <c r="O3" t="n">
         <v>30</v>
@@ -678,7 +678,7 @@
         <v>174</v>
       </c>
       <c r="R3" t="n">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="S3" t="n">
         <v>180</v>
@@ -715,31 +715,31 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001560185</v>
+        <v>0.001617607</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002293861</v>
+        <v>0.002378836</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005091733</v>
+        <v>0.005317446</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002812141</v>
+        <v>0.00293198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.077948239</v>
+        <v>0.082823642</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003753486</v>
+        <v>0.005777665</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003711752</v>
+        <v>0.00177338</v>
       </c>
       <c r="O4" t="n">
         <v>30</v>
@@ -751,7 +751,7 @@
         <v>174</v>
       </c>
       <c r="R4" t="n">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="S4" t="n">
         <v>180</v>
@@ -788,31 +788,31 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001584974</v>
+        <v>0.001618018</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002335341</v>
+        <v>0.002407467</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005166453</v>
+        <v>0.005363349</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002842287</v>
+        <v>0.002928718</v>
       </c>
       <c r="L5" t="n">
-        <v>0.104607873</v>
+        <v>0.109898297</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00380664</v>
+        <v>0.005792002</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003766991</v>
+        <v>0.00174636</v>
       </c>
       <c r="O5" t="n">
         <v>30</v>
@@ -824,7 +824,7 @@
         <v>174</v>
       </c>
       <c r="R5" t="n">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="S5" t="n">
         <v>180</v>
@@ -861,31 +861,31 @@
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001566222</v>
+        <v>0.001688394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002305985</v>
+        <v>0.002502772</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005101728</v>
+        <v>0.005664158</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00278671</v>
+        <v>0.003132095</v>
       </c>
       <c r="L6" t="n">
-        <v>0.129010545</v>
+        <v>0.139573002</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003816585</v>
+        <v>0.006126058</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003726772</v>
+        <v>0.001850921</v>
       </c>
       <c r="O6" t="n">
         <v>30</v>
@@ -897,7 +897,7 @@
         <v>174</v>
       </c>
       <c r="R6" t="n">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="S6" t="n">
         <v>180</v>
@@ -934,31 +934,31 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001625137</v>
+        <v>0.001686212</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002337029</v>
+        <v>0.002479418</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005196728</v>
+        <v>0.00548585</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002856081</v>
+        <v>0.00298014</v>
       </c>
       <c r="L7" t="n">
-        <v>0.155186313</v>
+        <v>0.164123408</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003879176</v>
+        <v>0.005854843</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003834471</v>
+        <v>0.001848616</v>
       </c>
       <c r="O7" t="n">
         <v>30</v>
@@ -970,7 +970,7 @@
         <v>174</v>
       </c>
       <c r="R7" t="n">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="S7" t="n">
         <v>180</v>
@@ -1007,31 +1007,31 @@
         <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001537781</v>
+        <v>0.001635063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002233987</v>
+        <v>0.002440479</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005003085</v>
+        <v>0.00540653</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002744474</v>
+        <v>0.002975674</v>
       </c>
       <c r="L8" t="n">
-        <v>0.027099578</v>
+        <v>0.029540998</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003673944</v>
+        <v>0.005829555</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003667309</v>
+        <v>0.001736905</v>
       </c>
       <c r="O8" t="n">
         <v>30</v>
@@ -1043,7 +1043,7 @@
         <v>174</v>
       </c>
       <c r="R8" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="S8" t="n">
         <v>180</v>
@@ -1080,31 +1080,31 @@
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001559242</v>
+        <v>0.001667561</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002269633</v>
+        <v>0.002433767</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005049983</v>
+        <v>0.005361054</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002777729</v>
+        <v>0.002948011</v>
       </c>
       <c r="L9" t="n">
-        <v>0.052394523</v>
+        <v>0.055712042</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003723008</v>
+        <v>0.005746013</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003697484</v>
+        <v>0.001760801</v>
       </c>
       <c r="O9" t="n">
         <v>30</v>
@@ -1116,7 +1116,7 @@
         <v>174</v>
       </c>
       <c r="R9" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="S9" t="n">
         <v>180</v>
@@ -1153,31 +1153,31 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00158606</v>
+        <v>0.001647306</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002335859</v>
+        <v>0.002413704</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005188166</v>
+        <v>0.005389615</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002823131</v>
+        <v>0.002977088</v>
       </c>
       <c r="L10" t="n">
-        <v>0.078243863</v>
+        <v>0.08289584799999999</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003796397</v>
+        <v>0.005796073</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00375359</v>
+        <v>0.001780104</v>
       </c>
       <c r="O10" t="n">
         <v>30</v>
@@ -1189,7 +1189,7 @@
         <v>174</v>
       </c>
       <c r="R10" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="S10" t="n">
         <v>180</v>
@@ -1226,31 +1226,31 @@
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001527355</v>
+        <v>0.001611731</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00222039</v>
+        <v>0.002386093</v>
       </c>
       <c r="J11" t="n">
-        <v>0.004937351</v>
+        <v>0.005232123</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002721118</v>
+        <v>0.002897348</v>
       </c>
       <c r="L11" t="n">
-        <v>0.100606872</v>
+        <v>0.107808545</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003684245</v>
+        <v>0.005641777</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003630674</v>
+        <v>0.001782182</v>
       </c>
       <c r="O11" t="n">
         <v>30</v>
@@ -1262,7 +1262,7 @@
         <v>174</v>
       </c>
       <c r="R11" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="S11" t="n">
         <v>180</v>
@@ -1299,31 +1299,31 @@
         <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001561195</v>
+        <v>0.001678879</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002271145</v>
+        <v>0.002456321</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005037856</v>
+        <v>0.005562291</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002772636</v>
+        <v>0.003101633</v>
       </c>
       <c r="L12" t="n">
-        <v>0.126385943</v>
+        <v>0.1402371</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00371001</v>
+        <v>0.006151545</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003684987</v>
+        <v>0.001954894</v>
       </c>
       <c r="O12" t="n">
         <v>30</v>
@@ -1335,7 +1335,7 @@
         <v>174</v>
       </c>
       <c r="R12" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="S12" t="n">
         <v>180</v>
@@ -1372,31 +1372,31 @@
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001540119</v>
+        <v>0.001710996</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00226177</v>
+        <v>0.002482849</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005063357</v>
+        <v>0.005488924</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002775869</v>
+        <v>0.002962738</v>
       </c>
       <c r="L13" t="n">
-        <v>0.151137031</v>
+        <v>0.167388838</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003751063</v>
+        <v>0.006047973</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00369368</v>
+        <v>0.001905858</v>
       </c>
       <c r="O13" t="n">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>174</v>
       </c>
       <c r="R13" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="S13" t="n">
         <v>180</v>
@@ -1445,31 +1445,31 @@
         <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001556535</v>
+        <v>0.001654534</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002310977</v>
+        <v>0.002423723</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005089114</v>
+        <v>0.005548478</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002802616</v>
+        <v>0.003099254</v>
       </c>
       <c r="L14" t="n">
-        <v>0.027702</v>
+        <v>0.030471453</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003762125</v>
+        <v>0.005910378</v>
       </c>
       <c r="N14" t="n">
-        <v>0.003713007</v>
+        <v>0.0017488</v>
       </c>
       <c r="O14" t="n">
         <v>30</v>
@@ -1481,7 +1481,7 @@
         <v>174</v>
       </c>
       <c r="R14" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="S14" t="n">
         <v>180</v>
@@ -1518,31 +1518,31 @@
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001592128</v>
+        <v>0.00169236</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002282857</v>
+        <v>0.002465694</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005088019</v>
+        <v>0.00554203</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002772288</v>
+        <v>0.003060501</v>
       </c>
       <c r="L15" t="n">
-        <v>0.052680952</v>
+        <v>0.056706953</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003780674</v>
+        <v>0.005720536</v>
       </c>
       <c r="N15" t="n">
-        <v>0.003706921</v>
+        <v>0.001747078</v>
       </c>
       <c r="O15" t="n">
         <v>30</v>
@@ -1554,7 +1554,7 @@
         <v>174</v>
       </c>
       <c r="R15" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="S15" t="n">
         <v>180</v>
@@ -1591,31 +1591,31 @@
         <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001551745</v>
+        <v>0.001674989</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002233483</v>
+        <v>0.002446967</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005003328</v>
+        <v>0.005453877</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002737818</v>
+        <v>0.002983588</v>
       </c>
       <c r="L16" t="n">
-        <v>0.076641641</v>
+        <v>0.084606397</v>
       </c>
       <c r="M16" t="n">
-        <v>0.003671723</v>
+        <v>0.005860879</v>
       </c>
       <c r="N16" t="n">
-        <v>0.003656418</v>
+        <v>0.001796321</v>
       </c>
       <c r="O16" t="n">
         <v>30</v>
@@ -1627,7 +1627,7 @@
         <v>174</v>
       </c>
       <c r="R16" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="S16" t="n">
         <v>180</v>
@@ -1664,31 +1664,31 @@
         <v>100</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001557601</v>
+        <v>0.001750585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00228386</v>
+        <v>0.002539828</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005078315</v>
+        <v>0.005536773</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00279697</v>
+        <v>0.003003419</v>
       </c>
       <c r="L17" t="n">
-        <v>0.102990188</v>
+        <v>0.112038101</v>
       </c>
       <c r="M17" t="n">
-        <v>0.003757962</v>
+        <v>0.006007879</v>
       </c>
       <c r="N17" t="n">
-        <v>0.003724278</v>
+        <v>0.001847763</v>
       </c>
       <c r="O17" t="n">
         <v>30</v>
@@ -1700,7 +1700,7 @@
         <v>174</v>
       </c>
       <c r="R17" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="S17" t="n">
         <v>180</v>
@@ -1737,31 +1737,31 @@
         <v>100</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001534646</v>
+        <v>0.001705504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002266106</v>
+        <v>0.002466309</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005051251</v>
+        <v>0.005493016</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00278417</v>
+        <v>0.002989922</v>
       </c>
       <c r="L18" t="n">
-        <v>0.127003055</v>
+        <v>0.13770835</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003732658</v>
+        <v>0.006094228</v>
       </c>
       <c r="N18" t="n">
-        <v>0.003718135</v>
+        <v>0.001892089</v>
       </c>
       <c r="O18" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         <v>174</v>
       </c>
       <c r="R18" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="S18" t="n">
         <v>180</v>
@@ -1810,31 +1810,31 @@
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001531625</v>
+        <v>0.001656381</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002246697</v>
+        <v>0.002402368</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005004235</v>
+        <v>0.005299572</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00274196</v>
+        <v>0.002897197</v>
       </c>
       <c r="L19" t="n">
-        <v>0.149937833</v>
+        <v>0.160027196</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003717711</v>
+        <v>0.006065574</v>
       </c>
       <c r="N19" t="n">
-        <v>0.003665678</v>
+        <v>0.00188808</v>
       </c>
       <c r="O19" t="n">
         <v>30</v>
@@ -1846,7 +1846,7 @@
         <v>174</v>
       </c>
       <c r="R19" t="n">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="S19" t="n">
         <v>180</v>
@@ -1883,31 +1883,31 @@
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001605128</v>
+        <v>0.001696162</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002358241</v>
+        <v>0.002430259</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005287238</v>
+        <v>0.005390398</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002858851</v>
+        <v>0.002955246</v>
       </c>
       <c r="L20" t="n">
-        <v>0.028318536</v>
+        <v>0.029188108</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003858967</v>
+        <v>0.005762025</v>
       </c>
       <c r="N20" t="n">
-        <v>0.003827961</v>
+        <v>0.001731438</v>
       </c>
       <c r="O20" t="n">
         <v>30</v>
@@ -1919,7 +1919,7 @@
         <v>174</v>
       </c>
       <c r="R20" t="n">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="S20" t="n">
         <v>180</v>
@@ -1956,31 +1956,31 @@
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001567629</v>
+        <v>0.001631995</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002252634</v>
+        <v>0.002378387</v>
       </c>
       <c r="J21" t="n">
-        <v>0.004974585</v>
+        <v>0.005165652</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002742825</v>
+        <v>0.002860769</v>
       </c>
       <c r="L21" t="n">
-        <v>0.051816174</v>
+        <v>0.055974869</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003666757</v>
+        <v>0.005631666</v>
       </c>
       <c r="N21" t="n">
-        <v>0.003615775</v>
+        <v>0.001734533</v>
       </c>
       <c r="O21" t="n">
         <v>30</v>
@@ -1992,7 +1992,7 @@
         <v>174</v>
       </c>
       <c r="R21" t="n">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="S21" t="n">
         <v>180</v>
@@ -2029,31 +2029,31 @@
         <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001537486</v>
+        <v>0.00166858</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002230836</v>
+        <v>0.002423842</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004978344</v>
+        <v>0.005365456</v>
       </c>
       <c r="K22" t="n">
-        <v>0.00273099</v>
+        <v>0.002914861</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07619197</v>
+        <v>0.082836779</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003688826</v>
+        <v>0.005829055</v>
       </c>
       <c r="N22" t="n">
-        <v>0.003652898</v>
+        <v>0.001789286</v>
       </c>
       <c r="O22" t="n">
         <v>30</v>
@@ -2065,7 +2065,7 @@
         <v>174</v>
       </c>
       <c r="R22" t="n">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="S22" t="n">
         <v>180</v>
@@ -2102,31 +2102,31 @@
         <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001552475</v>
+        <v>0.001638489</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002279614</v>
+        <v>0.00239632</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005113611</v>
+        <v>0.005271194</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00277477</v>
+        <v>0.002963924</v>
       </c>
       <c r="L23" t="n">
-        <v>0.102119474</v>
+        <v>0.107887073</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003766153</v>
+        <v>0.005956745</v>
       </c>
       <c r="N23" t="n">
-        <v>0.003714701</v>
+        <v>0.001837736</v>
       </c>
       <c r="O23" t="n">
         <v>30</v>
@@ -2138,7 +2138,7 @@
         <v>174</v>
       </c>
       <c r="R23" t="n">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="S23" t="n">
         <v>180</v>
@@ -2175,31 +2175,31 @@
         <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001507356</v>
+        <v>0.001606812</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002227156</v>
+        <v>0.002327837</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004977587</v>
+        <v>0.005281348</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002732324</v>
+        <v>0.002961427</v>
       </c>
       <c r="L24" t="n">
-        <v>0.123683354</v>
+        <v>0.138216821</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003665738</v>
+        <v>0.005986887</v>
       </c>
       <c r="N24" t="n">
-        <v>0.003665669</v>
+        <v>0.001838882</v>
       </c>
       <c r="O24" t="n">
         <v>30</v>
@@ -2211,7 +2211,7 @@
         <v>174</v>
       </c>
       <c r="R24" t="n">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="S24" t="n">
         <v>180</v>
@@ -2248,31 +2248,31 @@
         <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001548788</v>
+        <v>0.001648869</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002297989</v>
+        <v>0.002431216</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005057484</v>
+        <v>0.005360835</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002792248</v>
+        <v>0.00299001</v>
       </c>
       <c r="L25" t="n">
-        <v>0.152278177</v>
+        <v>0.164152474</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003772455</v>
+        <v>0.005983449</v>
       </c>
       <c r="N25" t="n">
-        <v>0.003751314</v>
+        <v>0.001859471</v>
       </c>
       <c r="O25" t="n">
         <v>30</v>
@@ -2284,7 +2284,7 @@
         <v>174</v>
       </c>
       <c r="R25" t="n">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="S25" t="n">
         <v>180</v>
@@ -2321,31 +2321,31 @@
         <v>100</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001550011</v>
+        <v>0.001688909</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002249521</v>
+        <v>0.002487152</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00497001</v>
+        <v>0.005507786</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002718865</v>
+        <v>0.002976406</v>
       </c>
       <c r="L26" t="n">
-        <v>0.026950513</v>
+        <v>0.029892768</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003676047</v>
+        <v>0.005715499</v>
       </c>
       <c r="N26" t="n">
-        <v>0.003636807</v>
+        <v>0.001731358</v>
       </c>
       <c r="O26" t="n">
         <v>30</v>
@@ -2357,7 +2357,7 @@
         <v>174</v>
       </c>
       <c r="R26" t="n">
-        <v>1188</v>
+        <v>1140</v>
       </c>
       <c r="S26" t="n">
         <v>180</v>
@@ -2394,31 +2394,31 @@
         <v>100</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001537419</v>
+        <v>0.001706826</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002233938</v>
+        <v>0.002502855</v>
       </c>
       <c r="J27" t="n">
-        <v>0.004937452</v>
+        <v>0.005577333</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002702762</v>
+        <v>0.003057714</v>
       </c>
       <c r="L27" t="n">
-        <v>0.051246498</v>
+        <v>0.056356689</v>
       </c>
       <c r="M27" t="n">
-        <v>0.003652566</v>
+        <v>0.00582283</v>
       </c>
       <c r="N27" t="n">
-        <v>0.003585272</v>
+        <v>0.001785467</v>
       </c>
       <c r="O27" t="n">
         <v>30</v>
@@ -2430,7 +2430,7 @@
         <v>174</v>
       </c>
       <c r="R27" t="n">
-        <v>1188</v>
+        <v>1140</v>
       </c>
       <c r="S27" t="n">
         <v>180</v>
@@ -2467,31 +2467,31 @@
         <v>100</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00151108</v>
+        <v>0.001705835</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002237774</v>
+        <v>0.002476815</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004979572</v>
+        <v>0.005463947</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002731112</v>
+        <v>0.002946124</v>
       </c>
       <c r="L28" t="n">
-        <v>0.076407198</v>
+        <v>0.08386006</v>
       </c>
       <c r="M28" t="n">
-        <v>0.003694591</v>
+        <v>0.006006862</v>
       </c>
       <c r="N28" t="n">
-        <v>0.003679992</v>
+        <v>0.001811633</v>
       </c>
       <c r="O28" t="n">
         <v>30</v>
@@ -2503,7 +2503,7 @@
         <v>174</v>
       </c>
       <c r="R28" t="n">
-        <v>1188</v>
+        <v>1140</v>
       </c>
       <c r="S28" t="n">
         <v>180</v>
@@ -2540,31 +2540,31 @@
         <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001586378</v>
+        <v>0.001658795</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00234837</v>
+        <v>0.002430618</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005196588</v>
+        <v>0.005332058</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002826426</v>
+        <v>0.002944919</v>
       </c>
       <c r="L29" t="n">
-        <v>0.103992117</v>
+        <v>0.109413734</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003813944</v>
+        <v>0.005715772</v>
       </c>
       <c r="N29" t="n">
-        <v>0.003757195</v>
+        <v>0.001770555</v>
       </c>
       <c r="O29" t="n">
         <v>30</v>
@@ -2576,7 +2576,7 @@
         <v>174</v>
       </c>
       <c r="R29" t="n">
-        <v>1188</v>
+        <v>1140</v>
       </c>
       <c r="S29" t="n">
         <v>180</v>
@@ -2613,31 +2613,31 @@
         <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001525034</v>
+        <v>0.001615603</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002229083</v>
+        <v>0.002405017</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005027607</v>
+        <v>0.005341558</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002766046</v>
+        <v>0.002935552</v>
       </c>
       <c r="L30" t="n">
-        <v>0.124492148</v>
+        <v>0.136851488</v>
       </c>
       <c r="M30" t="n">
-        <v>0.003665219</v>
+        <v>0.006074865</v>
       </c>
       <c r="N30" t="n">
-        <v>0.003668388</v>
+        <v>0.00185793</v>
       </c>
       <c r="O30" t="n">
         <v>30</v>
@@ -2649,7 +2649,7 @@
         <v>174</v>
       </c>
       <c r="R30" t="n">
-        <v>1188</v>
+        <v>1140</v>
       </c>
       <c r="S30" t="n">
         <v>180</v>
@@ -2686,31 +2686,31 @@
         <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001591124</v>
+        <v>0.00166436</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002287808</v>
+        <v>0.002465044</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005073243</v>
+        <v>0.005368683</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002808648</v>
+        <v>0.002915998</v>
       </c>
       <c r="L31" t="n">
-        <v>0.152668567</v>
+        <v>0.162326474</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003780526</v>
+        <v>0.006106236</v>
       </c>
       <c r="N31" t="n">
-        <v>0.003726056</v>
+        <v>0.00189442</v>
       </c>
       <c r="O31" t="n">
         <v>30</v>
@@ -2722,7 +2722,7 @@
         <v>174</v>
       </c>
       <c r="R31" t="n">
-        <v>1188</v>
+        <v>1140</v>
       </c>
       <c r="S31" t="n">
         <v>180</v>
@@ -2759,31 +2759,31 @@
         <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001499396</v>
+        <v>0.001675669</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002197819</v>
+        <v>0.00243169</v>
       </c>
       <c r="J32" t="n">
-        <v>0.004900577</v>
+        <v>0.005383154</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002695631</v>
+        <v>0.002928692</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02647865</v>
+        <v>0.029471651</v>
       </c>
       <c r="M32" t="n">
-        <v>0.003619189</v>
+        <v>0.00558573</v>
       </c>
       <c r="N32" t="n">
-        <v>0.003630846</v>
+        <v>0.001699817</v>
       </c>
       <c r="O32" t="n">
         <v>30</v>
@@ -2795,7 +2795,7 @@
         <v>174</v>
       </c>
       <c r="R32" t="n">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="S32" t="n">
         <v>180</v>
@@ -2832,31 +2832,31 @@
         <v>100</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001547951</v>
+        <v>0.001739203</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002248391</v>
+        <v>0.002580669</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0049564</v>
+        <v>0.005613236</v>
       </c>
       <c r="K33" t="n">
-        <v>0.002724761</v>
+        <v>0.003041468</v>
       </c>
       <c r="L33" t="n">
-        <v>0.051472731</v>
+        <v>0.056461234</v>
       </c>
       <c r="M33" t="n">
-        <v>0.003640024</v>
+        <v>0.005912974</v>
       </c>
       <c r="N33" t="n">
-        <v>0.003622977</v>
+        <v>0.001798379</v>
       </c>
       <c r="O33" t="n">
         <v>30</v>
@@ -2868,7 +2868,7 @@
         <v>174</v>
       </c>
       <c r="R33" t="n">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="S33" t="n">
         <v>180</v>
@@ -2905,31 +2905,31 @@
         <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001544018</v>
+        <v>0.001622609</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002296348</v>
+        <v>0.002387895</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00506799</v>
+        <v>0.005277106</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002775521</v>
+        <v>0.002880705</v>
       </c>
       <c r="L34" t="n">
-        <v>0.077100342</v>
+        <v>0.081555243</v>
       </c>
       <c r="M34" t="n">
-        <v>0.003770926</v>
+        <v>0.005797512</v>
       </c>
       <c r="N34" t="n">
-        <v>0.003750153</v>
+        <v>0.001743195</v>
       </c>
       <c r="O34" t="n">
         <v>30</v>
@@ -2941,7 +2941,7 @@
         <v>174</v>
       </c>
       <c r="R34" t="n">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="S34" t="n">
         <v>180</v>
@@ -2978,31 +2978,31 @@
         <v>100</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001523123</v>
+        <v>0.001708001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002240436</v>
+        <v>0.002473558</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005023728</v>
+        <v>0.005431797</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002727668</v>
+        <v>0.002938964</v>
       </c>
       <c r="L35" t="n">
-        <v>0.100462544</v>
+        <v>0.110627235</v>
       </c>
       <c r="M35" t="n">
-        <v>0.003684636</v>
+        <v>0.006046226</v>
       </c>
       <c r="N35" t="n">
-        <v>0.003658337</v>
+        <v>0.001842058</v>
       </c>
       <c r="O35" t="n">
         <v>30</v>
@@ -3014,7 +3014,7 @@
         <v>174</v>
       </c>
       <c r="R35" t="n">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="S35" t="n">
         <v>180</v>
@@ -3051,31 +3051,31 @@
         <v>100</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001524052</v>
+        <v>0.001719833</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002244906</v>
+        <v>0.00252618</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005018387</v>
+        <v>0.005601395</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002768939</v>
+        <v>0.003050789</v>
       </c>
       <c r="L36" t="n">
-        <v>0.125753826</v>
+        <v>0.139556889</v>
       </c>
       <c r="M36" t="n">
-        <v>0.003715601</v>
+        <v>0.006301267</v>
       </c>
       <c r="N36" t="n">
-        <v>0.003686693</v>
+        <v>0.001905945</v>
       </c>
       <c r="O36" t="n">
         <v>30</v>
@@ -3087,7 +3087,7 @@
         <v>174</v>
       </c>
       <c r="R36" t="n">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="S36" t="n">
         <v>180</v>
@@ -3124,31 +3124,31 @@
         <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001559608</v>
+        <v>0.001668277</v>
       </c>
       <c r="I37" t="n">
-        <v>0.002291542</v>
+        <v>0.002448465</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005052071</v>
+        <v>0.005454861</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002779835</v>
+        <v>0.002969486</v>
       </c>
       <c r="L37" t="n">
-        <v>0.151764258</v>
+        <v>0.165411888</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003775792</v>
+        <v>0.006010946</v>
       </c>
       <c r="N37" t="n">
-        <v>0.003722333</v>
+        <v>0.001895203</v>
       </c>
       <c r="O37" t="n">
         <v>30</v>
@@ -3160,7 +3160,7 @@
         <v>174</v>
       </c>
       <c r="R37" t="n">
-        <v>1316</v>
+        <v>1252</v>
       </c>
       <c r="S37" t="n">
         <v>180</v>

--- a/SchemeIBMEMR/SchemeIBMEMR.xlsx
+++ b/SchemeIBMEMR/SchemeIBMEMR.xlsx
@@ -575,25 +575,25 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0016277</v>
+        <v>0.002903705</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002371879</v>
+        <v>0.004124236</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005420547</v>
+        <v>0.008959952</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003001069</v>
+        <v>0.004893627</v>
       </c>
       <c r="L2" t="n">
-        <v>0.029437734</v>
+        <v>0.049589887</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00574437</v>
+        <v>0.009538513</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001713008</v>
+        <v>0.002898048</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
@@ -648,25 +648,25 @@
         <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001647577</v>
+        <v>0.00303459</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002458063</v>
+        <v>0.004250883</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005503736</v>
+        <v>0.009442320000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003051376</v>
+        <v>0.005253457</v>
       </c>
       <c r="L3" t="n">
-        <v>0.057559318</v>
+        <v>0.09680781300000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005885219</v>
+        <v>0.009567236</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001733017</v>
+        <v>0.003186673</v>
       </c>
       <c r="O3" t="n">
         <v>30</v>
@@ -721,25 +721,25 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001617607</v>
+        <v>0.003180411</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002378836</v>
+        <v>0.004439232</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005317446</v>
+        <v>0.010136873</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00293198</v>
+        <v>0.005345078</v>
       </c>
       <c r="L4" t="n">
-        <v>0.082823642</v>
+        <v>0.142944435</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005777665</v>
+        <v>0.009964969000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00177338</v>
+        <v>0.003157094</v>
       </c>
       <c r="O4" t="n">
         <v>30</v>
@@ -794,25 +794,25 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001618018</v>
+        <v>0.003039371</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002407467</v>
+        <v>0.004069588</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005363349</v>
+        <v>0.009356155</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002928718</v>
+        <v>0.005421986</v>
       </c>
       <c r="L5" t="n">
-        <v>0.109898297</v>
+        <v>0.188930719</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005792002</v>
+        <v>0.009968038</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00174636</v>
+        <v>0.003186582</v>
       </c>
       <c r="O5" t="n">
         <v>30</v>
@@ -867,25 +867,25 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001688394</v>
+        <v>0.003038857</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002502772</v>
+        <v>0.004390723</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005664158</v>
+        <v>0.009640826</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003132095</v>
+        <v>0.005223235</v>
       </c>
       <c r="L6" t="n">
-        <v>0.139573002</v>
+        <v>0.237275568</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006126058</v>
+        <v>0.009997125000000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001850921</v>
+        <v>0.003328402</v>
       </c>
       <c r="O6" t="n">
         <v>30</v>
@@ -940,25 +940,25 @@
         <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001686212</v>
+        <v>0.003180314</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002479418</v>
+        <v>0.004307816</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00548585</v>
+        <v>0.009948189</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00298014</v>
+        <v>0.00541581</v>
       </c>
       <c r="L7" t="n">
-        <v>0.164123408</v>
+        <v>0.290869818</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005854843</v>
+        <v>0.010723429</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001848616</v>
+        <v>0.003381291</v>
       </c>
       <c r="O7" t="n">
         <v>30</v>
@@ -1013,25 +1013,25 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001635063</v>
+        <v>0.002965746</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002440479</v>
+        <v>0.004080289</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00540653</v>
+        <v>0.009038796</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002975674</v>
+        <v>0.004987539</v>
       </c>
       <c r="L8" t="n">
-        <v>0.029540998</v>
+        <v>0.050749036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005829555</v>
+        <v>0.01000204</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001736905</v>
+        <v>0.003039303</v>
       </c>
       <c r="O8" t="n">
         <v>30</v>
@@ -1086,25 +1086,25 @@
         <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001667561</v>
+        <v>0.003274698</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002433767</v>
+        <v>0.004452741</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005361054</v>
+        <v>0.009727972</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002948011</v>
+        <v>0.005407272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.055712042</v>
+        <v>0.10043417</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005746013</v>
+        <v>0.011036556</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001760801</v>
+        <v>0.003420108</v>
       </c>
       <c r="O9" t="n">
         <v>30</v>
@@ -1159,25 +1159,25 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001647306</v>
+        <v>0.002721805</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002413704</v>
+        <v>0.003880666</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005389615</v>
+        <v>0.008452868000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002977088</v>
+        <v>0.004525311</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08289584799999999</v>
+        <v>0.131876239</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005796073</v>
+        <v>0.009195577999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001780104</v>
+        <v>0.002871489</v>
       </c>
       <c r="O10" t="n">
         <v>30</v>
@@ -1232,25 +1232,25 @@
         <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001611731</v>
+        <v>0.002748551</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002386093</v>
+        <v>0.003881251</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005232123</v>
+        <v>0.008660032</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002897348</v>
+        <v>0.004826242</v>
       </c>
       <c r="L11" t="n">
-        <v>0.107808545</v>
+        <v>0.173207492</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005641777</v>
+        <v>0.009273887</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001782182</v>
+        <v>0.003022019</v>
       </c>
       <c r="O11" t="n">
         <v>30</v>
@@ -1305,25 +1305,25 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001678879</v>
+        <v>0.00315097</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002456321</v>
+        <v>0.004426495</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005562291</v>
+        <v>0.010043686</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003101633</v>
+        <v>0.005471434</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1402371</v>
+        <v>0.245664613</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006151545</v>
+        <v>0.010988407</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001954894</v>
+        <v>0.003393991</v>
       </c>
       <c r="O12" t="n">
         <v>30</v>
@@ -1378,25 +1378,25 @@
         <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001710996</v>
+        <v>0.002668184</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002482849</v>
+        <v>0.003800234</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005488924</v>
+        <v>0.008653951</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002962738</v>
+        <v>0.004707659</v>
       </c>
       <c r="L13" t="n">
-        <v>0.167388838</v>
+        <v>0.260416648</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006047973</v>
+        <v>0.009794314</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001905858</v>
+        <v>0.003103824</v>
       </c>
       <c r="O13" t="n">
         <v>30</v>
@@ -1451,25 +1451,25 @@
         <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001654534</v>
+        <v>0.001647573</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002423723</v>
+        <v>0.002387769</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005548478</v>
+        <v>0.005306042</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003099254</v>
+        <v>0.002913036</v>
       </c>
       <c r="L14" t="n">
-        <v>0.030471453</v>
+        <v>0.028851987</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005910378</v>
+        <v>0.005731921</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0017488</v>
+        <v>0.00171229</v>
       </c>
       <c r="O14" t="n">
         <v>30</v>
@@ -1524,25 +1524,25 @@
         <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00169236</v>
+        <v>0.001660633</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002465694</v>
+        <v>0.002379678</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00554203</v>
+        <v>0.005287647</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003060501</v>
+        <v>0.002900293</v>
       </c>
       <c r="L15" t="n">
-        <v>0.056706953</v>
+        <v>0.055339321</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005720536</v>
+        <v>0.005639313</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001747078</v>
+        <v>0.001723807</v>
       </c>
       <c r="O15" t="n">
         <v>30</v>
@@ -1597,25 +1597,25 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001674989</v>
+        <v>0.00162735</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002446967</v>
+        <v>0.002396541</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005453877</v>
+        <v>0.005282068</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002983588</v>
+        <v>0.00289046</v>
       </c>
       <c r="L16" t="n">
-        <v>0.084606397</v>
+        <v>0.081310515</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005860879</v>
+        <v>0.005740247</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001796321</v>
+        <v>0.001718459</v>
       </c>
       <c r="O16" t="n">
         <v>30</v>
@@ -1670,25 +1670,25 @@
         <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001750585</v>
+        <v>0.001579031</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002539828</v>
+        <v>0.002346931</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005536773</v>
+        <v>0.005231342</v>
       </c>
       <c r="K17" t="n">
-        <v>0.003003419</v>
+        <v>0.002836043</v>
       </c>
       <c r="L17" t="n">
-        <v>0.112038101</v>
+        <v>0.104728704</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006007879</v>
+        <v>0.005514605</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001847763</v>
+        <v>0.00168499</v>
       </c>
       <c r="O17" t="n">
         <v>30</v>
@@ -1743,25 +1743,25 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001705504</v>
+        <v>0.001651818</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002466309</v>
+        <v>0.002405264</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005493016</v>
+        <v>0.005348221</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002989922</v>
+        <v>0.002934624</v>
       </c>
       <c r="L18" t="n">
-        <v>0.13770835</v>
+        <v>0.134049327</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006094228</v>
+        <v>0.005750409</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001892089</v>
+        <v>0.001780926</v>
       </c>
       <c r="O18" t="n">
         <v>30</v>
@@ -1816,25 +1816,25 @@
         <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001656381</v>
+        <v>0.001620782</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002402368</v>
+        <v>0.002375838</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005299572</v>
+        <v>0.005262844</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002897197</v>
+        <v>0.002909832</v>
       </c>
       <c r="L19" t="n">
-        <v>0.160027196</v>
+        <v>0.158568408</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006065574</v>
+        <v>0.005709316</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00188808</v>
+        <v>0.001770944</v>
       </c>
       <c r="O19" t="n">
         <v>30</v>
@@ -1889,25 +1889,25 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001696162</v>
+        <v>0.001659001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002430259</v>
+        <v>0.002425183</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005390398</v>
+        <v>0.005364706</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002955246</v>
+        <v>0.003000108</v>
       </c>
       <c r="L20" t="n">
-        <v>0.029188108</v>
+        <v>0.0293219</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005762025</v>
+        <v>0.005773232</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001731438</v>
+        <v>0.0017416</v>
       </c>
       <c r="O20" t="n">
         <v>30</v>
@@ -1962,25 +1962,25 @@
         <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001631995</v>
+        <v>0.001704038</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002378387</v>
+        <v>0.002480038</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005165652</v>
+        <v>0.005457907</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002860769</v>
+        <v>0.003008793</v>
       </c>
       <c r="L21" t="n">
-        <v>0.055974869</v>
+        <v>0.057040983</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005631666</v>
+        <v>0.005853367</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001734533</v>
+        <v>0.00175613</v>
       </c>
       <c r="O21" t="n">
         <v>30</v>
@@ -2035,25 +2035,25 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00166858</v>
+        <v>0.00162485</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002423842</v>
+        <v>0.002366758</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005365456</v>
+        <v>0.005299395</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002914861</v>
+        <v>0.002919271</v>
       </c>
       <c r="L22" t="n">
-        <v>0.082836779</v>
+        <v>0.080954072</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005829055</v>
+        <v>0.005635055</v>
       </c>
       <c r="N22" t="n">
-        <v>0.001789286</v>
+        <v>0.001725952</v>
       </c>
       <c r="O22" t="n">
         <v>30</v>
@@ -2108,25 +2108,25 @@
         <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001638489</v>
+        <v>0.001651648</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00239632</v>
+        <v>0.002419235</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005271194</v>
+        <v>0.005348799</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002963924</v>
+        <v>0.002928667</v>
       </c>
       <c r="L23" t="n">
-        <v>0.107887073</v>
+        <v>0.108502112</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005956745</v>
+        <v>0.005751436</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001837736</v>
+        <v>0.001762761</v>
       </c>
       <c r="O23" t="n">
         <v>30</v>
@@ -2181,25 +2181,25 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001606812</v>
+        <v>0.001640746</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002327837</v>
+        <v>0.00242237</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005281348</v>
+        <v>0.005299301</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002961427</v>
+        <v>0.002936528</v>
       </c>
       <c r="L24" t="n">
-        <v>0.138216821</v>
+        <v>0.133841361</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005986887</v>
+        <v>0.005695413</v>
       </c>
       <c r="N24" t="n">
-        <v>0.001838882</v>
+        <v>0.001734469</v>
       </c>
       <c r="O24" t="n">
         <v>30</v>
@@ -2254,25 +2254,25 @@
         <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001648869</v>
+        <v>0.001649947</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002431216</v>
+        <v>0.002392143</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005360835</v>
+        <v>0.005281579</v>
       </c>
       <c r="K25" t="n">
-        <v>0.00299001</v>
+        <v>0.002941418</v>
       </c>
       <c r="L25" t="n">
-        <v>0.164152474</v>
+        <v>0.160815357</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005983449</v>
+        <v>0.005797444</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001859471</v>
+        <v>0.001793979</v>
       </c>
       <c r="O25" t="n">
         <v>30</v>
@@ -2327,25 +2327,25 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001688909</v>
+        <v>0.001664013</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002487152</v>
+        <v>0.002380491</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005507786</v>
+        <v>0.005289377</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002976406</v>
+        <v>0.002926121</v>
       </c>
       <c r="L26" t="n">
-        <v>0.029892768</v>
+        <v>0.028813637</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005715499</v>
+        <v>0.005582892</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001731358</v>
+        <v>0.001689658</v>
       </c>
       <c r="O26" t="n">
         <v>30</v>
@@ -2400,25 +2400,25 @@
         <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001706826</v>
+        <v>0.001616113</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002502855</v>
+        <v>0.002342138</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005577333</v>
+        <v>0.005267809</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003057714</v>
+        <v>0.002851705</v>
       </c>
       <c r="L27" t="n">
-        <v>0.056356689</v>
+        <v>0.054049366</v>
       </c>
       <c r="M27" t="n">
-        <v>0.00582283</v>
+        <v>0.005513587</v>
       </c>
       <c r="N27" t="n">
-        <v>0.001785467</v>
+        <v>0.001666117</v>
       </c>
       <c r="O27" t="n">
         <v>30</v>
@@ -2473,25 +2473,25 @@
         <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001705835</v>
+        <v>0.001626996</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002476815</v>
+        <v>0.002364669</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005463947</v>
+        <v>0.005289917</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002946124</v>
+        <v>0.002900798</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08386006</v>
+        <v>0.08074587699999999</v>
       </c>
       <c r="M28" t="n">
-        <v>0.006006862</v>
+        <v>0.005609301</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001811633</v>
+        <v>0.001699962</v>
       </c>
       <c r="O28" t="n">
         <v>30</v>
@@ -2546,25 +2546,25 @@
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001658795</v>
+        <v>0.001614412</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002430618</v>
+        <v>0.00235917</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005332058</v>
+        <v>0.005261452</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002944919</v>
+        <v>0.002871182</v>
       </c>
       <c r="L29" t="n">
-        <v>0.109413734</v>
+        <v>0.106322147</v>
       </c>
       <c r="M29" t="n">
-        <v>0.005715772</v>
+        <v>0.00564406</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001770555</v>
+        <v>0.001730167</v>
       </c>
       <c r="O29" t="n">
         <v>30</v>
@@ -2619,25 +2619,25 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001615603</v>
+        <v>0.001642255</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002405017</v>
+        <v>0.002365629</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005341558</v>
+        <v>0.005269879</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002935552</v>
+        <v>0.002930571</v>
       </c>
       <c r="L30" t="n">
-        <v>0.136851488</v>
+        <v>0.133072436</v>
       </c>
       <c r="M30" t="n">
-        <v>0.006074865</v>
+        <v>0.005682906</v>
       </c>
       <c r="N30" t="n">
-        <v>0.00185793</v>
+        <v>0.001766375</v>
       </c>
       <c r="O30" t="n">
         <v>30</v>
@@ -2692,25 +2692,25 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00166436</v>
+        <v>0.00163504</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002465044</v>
+        <v>0.002395364</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005368683</v>
+        <v>0.005340135</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002915998</v>
+        <v>0.002950413</v>
       </c>
       <c r="L31" t="n">
-        <v>0.162326474</v>
+        <v>0.160305475</v>
       </c>
       <c r="M31" t="n">
-        <v>0.006106236</v>
+        <v>0.00576238</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00189442</v>
+        <v>0.001786027</v>
       </c>
       <c r="O31" t="n">
         <v>30</v>
@@ -2765,25 +2765,25 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001675669</v>
+        <v>0.001641628</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00243169</v>
+        <v>0.00241269</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005383154</v>
+        <v>0.005303851</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002928692</v>
+        <v>0.002897232</v>
       </c>
       <c r="L32" t="n">
-        <v>0.029471651</v>
+        <v>0.028780608</v>
       </c>
       <c r="M32" t="n">
-        <v>0.00558573</v>
+        <v>0.005643297</v>
       </c>
       <c r="N32" t="n">
-        <v>0.001699817</v>
+        <v>0.001721656</v>
       </c>
       <c r="O32" t="n">
         <v>30</v>
@@ -2838,25 +2838,25 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001739203</v>
+        <v>0.001699859</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002580669</v>
+        <v>0.002489489</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005613236</v>
+        <v>0.005589624</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003041468</v>
+        <v>0.003071508</v>
       </c>
       <c r="L33" t="n">
-        <v>0.056461234</v>
+        <v>0.057416016</v>
       </c>
       <c r="M33" t="n">
-        <v>0.005912974</v>
+        <v>0.005876637</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001798379</v>
+        <v>0.001804188</v>
       </c>
       <c r="O33" t="n">
         <v>30</v>
@@ -2911,25 +2911,25 @@
         <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001622609</v>
+        <v>0.00165944</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002387895</v>
+        <v>0.002439589</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005277106</v>
+        <v>0.00540187</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002880705</v>
+        <v>0.002962724</v>
       </c>
       <c r="L34" t="n">
-        <v>0.081555243</v>
+        <v>0.083509414</v>
       </c>
       <c r="M34" t="n">
-        <v>0.005797512</v>
+        <v>0.005838256</v>
       </c>
       <c r="N34" t="n">
-        <v>0.001743195</v>
+        <v>0.001791193</v>
       </c>
       <c r="O34" t="n">
         <v>30</v>
@@ -2984,25 +2984,25 @@
         <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001708001</v>
+        <v>0.001645756</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002473558</v>
+        <v>0.002386696</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005431797</v>
+        <v>0.005308058</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002938964</v>
+        <v>0.002967763</v>
       </c>
       <c r="L35" t="n">
-        <v>0.110627235</v>
+        <v>0.106637625</v>
       </c>
       <c r="M35" t="n">
-        <v>0.006046226</v>
+        <v>0.005665431</v>
       </c>
       <c r="N35" t="n">
-        <v>0.001842058</v>
+        <v>0.001745211</v>
       </c>
       <c r="O35" t="n">
         <v>30</v>
@@ -3057,25 +3057,25 @@
         <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001719833</v>
+        <v>0.001625891</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00252618</v>
+        <v>0.002370609</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005601395</v>
+        <v>0.005293917</v>
       </c>
       <c r="K36" t="n">
-        <v>0.003050789</v>
+        <v>0.002881816</v>
       </c>
       <c r="L36" t="n">
-        <v>0.139556889</v>
+        <v>0.131377582</v>
       </c>
       <c r="M36" t="n">
-        <v>0.006301267</v>
+        <v>0.005664369</v>
       </c>
       <c r="N36" t="n">
-        <v>0.001905945</v>
+        <v>0.001741947</v>
       </c>
       <c r="O36" t="n">
         <v>30</v>
@@ -3130,25 +3130,25 @@
         <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001668277</v>
+        <v>0.001651203</v>
       </c>
       <c r="I37" t="n">
-        <v>0.002448465</v>
+        <v>0.002401149</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005454861</v>
+        <v>0.005307995</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002969486</v>
+        <v>0.002892657</v>
       </c>
       <c r="L37" t="n">
-        <v>0.165411888</v>
+        <v>0.15915928</v>
       </c>
       <c r="M37" t="n">
-        <v>0.006010946</v>
+        <v>0.005795216</v>
       </c>
       <c r="N37" t="n">
-        <v>0.001895203</v>
+        <v>0.001792249</v>
       </c>
       <c r="O37" t="n">
         <v>30</v>

--- a/SchemeIBMEMR/SchemeIBMEMR.xlsx
+++ b/SchemeIBMEMR/SchemeIBMEMR.xlsx
@@ -575,25 +575,25 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002903705</v>
+        <v>0.001654742</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004124236</v>
+        <v>0.002404746</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008959952</v>
+        <v>0.005326773</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004893627</v>
+        <v>0.002945261</v>
       </c>
       <c r="L2" t="n">
-        <v>0.049589887</v>
+        <v>0.029164355</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009538513</v>
+        <v>0.00565699</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002898048</v>
+        <v>0.001677407</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
@@ -648,25 +648,25 @@
         <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00303459</v>
+        <v>0.00168774</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004250883</v>
+        <v>0.002460113</v>
       </c>
       <c r="J3" t="n">
-        <v>0.009442320000000001</v>
+        <v>0.005461494</v>
       </c>
       <c r="K3" t="n">
-        <v>0.005253457</v>
+        <v>0.003027412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09680781300000001</v>
+        <v>0.056747701</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009567236</v>
+        <v>0.005745004</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003186673</v>
+        <v>0.001772971</v>
       </c>
       <c r="O3" t="n">
         <v>30</v>
@@ -721,25 +721,25 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003180411</v>
+        <v>0.001599965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004439232</v>
+        <v>0.002315873</v>
       </c>
       <c r="J4" t="n">
-        <v>0.010136873</v>
+        <v>0.005165179</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005345078</v>
+        <v>0.002851164</v>
       </c>
       <c r="L4" t="n">
-        <v>0.142944435</v>
+        <v>0.07965391300000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.009964969000000001</v>
+        <v>0.005457861</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003157094</v>
+        <v>0.001669071</v>
       </c>
       <c r="O4" t="n">
         <v>30</v>
@@ -794,25 +794,25 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003039371</v>
+        <v>0.001631776</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004069588</v>
+        <v>0.002390885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009356155</v>
+        <v>0.005271708</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005421986</v>
+        <v>0.002936291</v>
       </c>
       <c r="L5" t="n">
-        <v>0.188930719</v>
+        <v>0.107400755</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009968038</v>
+        <v>0.005684423</v>
       </c>
       <c r="N5" t="n">
-        <v>0.003186582</v>
+        <v>0.001737281</v>
       </c>
       <c r="O5" t="n">
         <v>30</v>
@@ -867,25 +867,25 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003038857</v>
+        <v>0.00161115</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004390723</v>
+        <v>0.002359716</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009640826</v>
+        <v>0.005265629</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005223235</v>
+        <v>0.002908749</v>
       </c>
       <c r="L6" t="n">
-        <v>0.237275568</v>
+        <v>0.132708071</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009997125000000001</v>
+        <v>0.005651966</v>
       </c>
       <c r="N6" t="n">
-        <v>0.003328402</v>
+        <v>0.001727684</v>
       </c>
       <c r="O6" t="n">
         <v>30</v>
@@ -940,25 +940,25 @@
         <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>0.003180314</v>
+        <v>0.001641542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004307816</v>
+        <v>0.002341441</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009948189</v>
+        <v>0.005233904</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00541581</v>
+        <v>0.002897703</v>
       </c>
       <c r="L7" t="n">
-        <v>0.290869818</v>
+        <v>0.15894777</v>
       </c>
       <c r="M7" t="n">
-        <v>0.010723429</v>
+        <v>0.005714775</v>
       </c>
       <c r="N7" t="n">
-        <v>0.003381291</v>
+        <v>0.00178331</v>
       </c>
       <c r="O7" t="n">
         <v>30</v>
@@ -1013,25 +1013,25 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002965746</v>
+        <v>0.001619488</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004080289</v>
+        <v>0.002395237</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009038796</v>
+        <v>0.005259416</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004987539</v>
+        <v>0.002906837</v>
       </c>
       <c r="L8" t="n">
-        <v>0.050749036</v>
+        <v>0.028714893</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01000204</v>
+        <v>0.005614524</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003039303</v>
+        <v>0.00170281</v>
       </c>
       <c r="O8" t="n">
         <v>30</v>
@@ -1086,25 +1086,25 @@
         <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003274698</v>
+        <v>0.001623746</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004452741</v>
+        <v>0.002351793</v>
       </c>
       <c r="J9" t="n">
-        <v>0.009727972</v>
+        <v>0.005246539</v>
       </c>
       <c r="K9" t="n">
-        <v>0.005407272</v>
+        <v>0.002867646</v>
       </c>
       <c r="L9" t="n">
-        <v>0.10043417</v>
+        <v>0.054906006</v>
       </c>
       <c r="M9" t="n">
-        <v>0.011036556</v>
+        <v>0.005591758</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003420108</v>
+        <v>0.001669851</v>
       </c>
       <c r="O9" t="n">
         <v>30</v>
@@ -1159,25 +1159,25 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002721805</v>
+        <v>0.001604843</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003880666</v>
+        <v>0.002366948</v>
       </c>
       <c r="J10" t="n">
-        <v>0.008452868000000001</v>
+        <v>0.005218087</v>
       </c>
       <c r="K10" t="n">
-        <v>0.004525311</v>
+        <v>0.002883102</v>
       </c>
       <c r="L10" t="n">
-        <v>0.131876239</v>
+        <v>0.08022480799999999</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009195577999999999</v>
+        <v>0.005576206</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002871489</v>
+        <v>0.001701657</v>
       </c>
       <c r="O10" t="n">
         <v>30</v>
@@ -1232,25 +1232,25 @@
         <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002748551</v>
+        <v>0.001602968</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003881251</v>
+        <v>0.002347711</v>
       </c>
       <c r="J11" t="n">
-        <v>0.008660032</v>
+        <v>0.005243091</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004826242</v>
+        <v>0.002867148</v>
       </c>
       <c r="L11" t="n">
-        <v>0.173207492</v>
+        <v>0.106785983</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009273887</v>
+        <v>0.005607849</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003022019</v>
+        <v>0.001690917</v>
       </c>
       <c r="O11" t="n">
         <v>30</v>
@@ -1305,25 +1305,25 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00315097</v>
+        <v>0.001626327</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004426495</v>
+        <v>0.002407017</v>
       </c>
       <c r="J12" t="n">
-        <v>0.010043686</v>
+        <v>0.005321766</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005471434</v>
+        <v>0.002905133</v>
       </c>
       <c r="L12" t="n">
-        <v>0.245664613</v>
+        <v>0.133004855</v>
       </c>
       <c r="M12" t="n">
-        <v>0.010988407</v>
+        <v>0.005694255</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003393991</v>
+        <v>0.001731837</v>
       </c>
       <c r="O12" t="n">
         <v>30</v>
@@ -1378,25 +1378,25 @@
         <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002668184</v>
+        <v>0.001698391</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003800234</v>
+        <v>0.002452225</v>
       </c>
       <c r="J13" t="n">
-        <v>0.008653951</v>
+        <v>0.005481702</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004707659</v>
+        <v>0.002999619</v>
       </c>
       <c r="L13" t="n">
-        <v>0.260416648</v>
+        <v>0.164477825</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009794314</v>
+        <v>0.005957795</v>
       </c>
       <c r="N13" t="n">
-        <v>0.003103824</v>
+        <v>0.001810775</v>
       </c>
       <c r="O13" t="n">
         <v>30</v>
@@ -1451,25 +1451,25 @@
         <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001647573</v>
+        <v>0.001626708</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002387769</v>
+        <v>0.002382242</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005306042</v>
+        <v>0.005327144</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002913036</v>
+        <v>0.002907566</v>
       </c>
       <c r="L14" t="n">
-        <v>0.028851987</v>
+        <v>0.02870538</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005731921</v>
+        <v>0.005585603</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00171229</v>
+        <v>0.00166841</v>
       </c>
       <c r="O14" t="n">
         <v>30</v>
@@ -1524,25 +1524,25 @@
         <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001660633</v>
+        <v>0.001737244</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002379678</v>
+        <v>0.002488617</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005287647</v>
+        <v>0.005614873</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002900293</v>
+        <v>0.003047442</v>
       </c>
       <c r="L15" t="n">
-        <v>0.055339321</v>
+        <v>0.058028196</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005639313</v>
+        <v>0.006031636</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001723807</v>
+        <v>0.001798582</v>
       </c>
       <c r="O15" t="n">
         <v>30</v>
@@ -1597,25 +1597,25 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00162735</v>
+        <v>0.001620151</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002396541</v>
+        <v>0.002402624</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005282068</v>
+        <v>0.00531832</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00289046</v>
+        <v>0.002906758</v>
       </c>
       <c r="L16" t="n">
-        <v>0.081310515</v>
+        <v>0.08147017199999999</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005740247</v>
+        <v>0.005640876</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001718459</v>
+        <v>0.001705747</v>
       </c>
       <c r="O16" t="n">
         <v>30</v>
@@ -1670,25 +1670,25 @@
         <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001579031</v>
+        <v>0.001601328</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002346931</v>
+        <v>0.002328093</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005231342</v>
+        <v>0.005233052</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002836043</v>
+        <v>0.002876614</v>
       </c>
       <c r="L17" t="n">
-        <v>0.104728704</v>
+        <v>0.105564381</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005514605</v>
+        <v>0.005564185</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00168499</v>
+        <v>0.001697623</v>
       </c>
       <c r="O17" t="n">
         <v>30</v>
@@ -1743,25 +1743,25 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001651818</v>
+        <v>0.001616512</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002405264</v>
+        <v>0.002393067</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005348221</v>
+        <v>0.005268106</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002934624</v>
+        <v>0.002889517</v>
       </c>
       <c r="L18" t="n">
-        <v>0.134049327</v>
+        <v>0.133543316</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005750409</v>
+        <v>0.005778909</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001780926</v>
+        <v>0.001737878</v>
       </c>
       <c r="O18" t="n">
         <v>30</v>
@@ -1816,25 +1816,25 @@
         <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001620782</v>
+        <v>0.00159885</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002375838</v>
+        <v>0.00235517</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005262844</v>
+        <v>0.005252065</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002909832</v>
+        <v>0.002873794</v>
       </c>
       <c r="L19" t="n">
-        <v>0.158568408</v>
+        <v>0.158804548</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005709316</v>
+        <v>0.005651214</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001770944</v>
+        <v>0.001725123</v>
       </c>
       <c r="O19" t="n">
         <v>30</v>
@@ -1889,25 +1889,25 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001659001</v>
+        <v>0.001604592</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002425183</v>
+        <v>0.002329973</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005364706</v>
+        <v>0.005208955</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003000108</v>
+        <v>0.002867492</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0293219</v>
+        <v>0.028144286</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005773232</v>
+        <v>0.005515691</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0017416</v>
+        <v>0.001641373</v>
       </c>
       <c r="O20" t="n">
         <v>30</v>
@@ -1962,25 +1962,25 @@
         <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001704038</v>
+        <v>0.001613432</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002480038</v>
+        <v>0.002364493</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005457907</v>
+        <v>0.005292843</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003008793</v>
+        <v>0.002863537</v>
       </c>
       <c r="L21" t="n">
-        <v>0.057040983</v>
+        <v>0.054579817</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005853367</v>
+        <v>0.005574908</v>
       </c>
       <c r="N21" t="n">
-        <v>0.00175613</v>
+        <v>0.001688645</v>
       </c>
       <c r="O21" t="n">
         <v>30</v>
@@ -2035,25 +2035,25 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00162485</v>
+        <v>0.001645204</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002366758</v>
+        <v>0.002428604</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005299395</v>
+        <v>0.005379173</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002919271</v>
+        <v>0.002968642</v>
       </c>
       <c r="L22" t="n">
-        <v>0.080954072</v>
+        <v>0.082759982</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005635055</v>
+        <v>0.005778366</v>
       </c>
       <c r="N22" t="n">
-        <v>0.001725952</v>
+        <v>0.00174345</v>
       </c>
       <c r="O22" t="n">
         <v>30</v>
@@ -2108,25 +2108,25 @@
         <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001651648</v>
+        <v>0.001634079</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002419235</v>
+        <v>0.002386385</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005348799</v>
+        <v>0.005308427</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002928667</v>
+        <v>0.002930678</v>
       </c>
       <c r="L23" t="n">
-        <v>0.108502112</v>
+        <v>0.108165095</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005751436</v>
+        <v>0.005653781</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001762761</v>
+        <v>0.001721063</v>
       </c>
       <c r="O23" t="n">
         <v>30</v>
@@ -2181,25 +2181,25 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001640746</v>
+        <v>0.001646393</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00242237</v>
+        <v>0.002392422</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005299301</v>
+        <v>0.005336744</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002936528</v>
+        <v>0.002936109</v>
       </c>
       <c r="L24" t="n">
-        <v>0.133841361</v>
+        <v>0.134902343</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005695413</v>
+        <v>0.005729445</v>
       </c>
       <c r="N24" t="n">
-        <v>0.001734469</v>
+        <v>0.001791787</v>
       </c>
       <c r="O24" t="n">
         <v>30</v>
@@ -2254,25 +2254,25 @@
         <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001649947</v>
+        <v>0.001683086</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002392143</v>
+        <v>0.002479294</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005281579</v>
+        <v>0.00543671</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002941418</v>
+        <v>0.002988316</v>
       </c>
       <c r="L25" t="n">
-        <v>0.160815357</v>
+        <v>0.162600756</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005797444</v>
+        <v>0.005854045</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001793979</v>
+        <v>0.001794302</v>
       </c>
       <c r="O25" t="n">
         <v>30</v>
@@ -2327,25 +2327,25 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001664013</v>
+        <v>0.001869449</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002380491</v>
+        <v>0.002598733</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005289377</v>
+        <v>0.005886604</v>
       </c>
       <c r="K26" t="n">
-        <v>0.002926121</v>
+        <v>0.003219633</v>
       </c>
       <c r="L26" t="n">
-        <v>0.028813637</v>
+        <v>0.032387023</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005582892</v>
+        <v>0.006487755</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001689658</v>
+        <v>0.001863613</v>
       </c>
       <c r="O26" t="n">
         <v>30</v>
@@ -2400,25 +2400,25 @@
         <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001616113</v>
+        <v>0.001879132</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002342138</v>
+        <v>0.002640967</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005267809</v>
+        <v>0.005876558</v>
       </c>
       <c r="K27" t="n">
-        <v>0.002851705</v>
+        <v>0.003200455</v>
       </c>
       <c r="L27" t="n">
-        <v>0.054049366</v>
+        <v>0.06225005</v>
       </c>
       <c r="M27" t="n">
-        <v>0.005513587</v>
+        <v>0.006482012</v>
       </c>
       <c r="N27" t="n">
-        <v>0.001666117</v>
+        <v>0.00190728</v>
       </c>
       <c r="O27" t="n">
         <v>30</v>
@@ -2473,25 +2473,25 @@
         <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001626996</v>
+        <v>0.001776787</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002364669</v>
+        <v>0.002544379</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005289917</v>
+        <v>0.005705634</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002900798</v>
+        <v>0.003143114</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08074587699999999</v>
+        <v>0.08773289099999999</v>
       </c>
       <c r="M28" t="n">
-        <v>0.005609301</v>
+        <v>0.006087948</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001699962</v>
+        <v>0.001868331</v>
       </c>
       <c r="O28" t="n">
         <v>30</v>
@@ -2546,25 +2546,25 @@
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001614412</v>
+        <v>0.001670351</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00235917</v>
+        <v>0.002469648</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005261452</v>
+        <v>0.005450869</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002871182</v>
+        <v>0.00302432</v>
       </c>
       <c r="L29" t="n">
-        <v>0.106322147</v>
+        <v>0.11068726</v>
       </c>
       <c r="M29" t="n">
-        <v>0.00564406</v>
+        <v>0.005804449</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001730167</v>
+        <v>0.001745638</v>
       </c>
       <c r="O29" t="n">
         <v>30</v>
@@ -2619,25 +2619,25 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001642255</v>
+        <v>0.001709037</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002365629</v>
+        <v>0.002510872</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005269879</v>
+        <v>0.005563199</v>
       </c>
       <c r="K30" t="n">
-        <v>0.002930571</v>
+        <v>0.003045885</v>
       </c>
       <c r="L30" t="n">
-        <v>0.133072436</v>
+        <v>0.139595003</v>
       </c>
       <c r="M30" t="n">
-        <v>0.005682906</v>
+        <v>0.005928251</v>
       </c>
       <c r="N30" t="n">
-        <v>0.001766375</v>
+        <v>0.001799966</v>
       </c>
       <c r="O30" t="n">
         <v>30</v>
@@ -2692,25 +2692,25 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00163504</v>
+        <v>0.001958261</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002395364</v>
+        <v>0.002799951</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005340135</v>
+        <v>0.006252444</v>
       </c>
       <c r="K31" t="n">
-        <v>0.002950413</v>
+        <v>0.003380498</v>
       </c>
       <c r="L31" t="n">
-        <v>0.160305475</v>
+        <v>0.185194353</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00576238</v>
+        <v>0.006736395</v>
       </c>
       <c r="N31" t="n">
-        <v>0.001786027</v>
+        <v>0.002095463</v>
       </c>
       <c r="O31" t="n">
         <v>30</v>
@@ -2765,25 +2765,25 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001641628</v>
+        <v>0.001902431</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00241269</v>
+        <v>0.002804763</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005303851</v>
+        <v>0.006327897</v>
       </c>
       <c r="K32" t="n">
-        <v>0.002897232</v>
+        <v>0.003424589</v>
       </c>
       <c r="L32" t="n">
-        <v>0.028780608</v>
+        <v>0.034467889</v>
       </c>
       <c r="M32" t="n">
-        <v>0.005643297</v>
+        <v>0.006706573</v>
       </c>
       <c r="N32" t="n">
-        <v>0.001721656</v>
+        <v>0.001959168</v>
       </c>
       <c r="O32" t="n">
         <v>30</v>
@@ -2838,25 +2838,25 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0.001699859</v>
+        <v>0.002153394</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002489489</v>
+        <v>0.002941596</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005589624</v>
+        <v>0.006698932</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003071508</v>
+        <v>0.003730056</v>
       </c>
       <c r="L33" t="n">
-        <v>0.057416016</v>
+        <v>0.070617306</v>
       </c>
       <c r="M33" t="n">
-        <v>0.005876637</v>
+        <v>0.007133607</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001804188</v>
+        <v>0.002130459</v>
       </c>
       <c r="O33" t="n">
         <v>30</v>
@@ -2911,25 +2911,25 @@
         <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00165944</v>
+        <v>0.001984696</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002439589</v>
+        <v>0.002911172</v>
       </c>
       <c r="J34" t="n">
-        <v>0.00540187</v>
+        <v>0.006354228</v>
       </c>
       <c r="K34" t="n">
-        <v>0.002962724</v>
+        <v>0.003576751</v>
       </c>
       <c r="L34" t="n">
-        <v>0.083509414</v>
+        <v>0.09608570700000001</v>
       </c>
       <c r="M34" t="n">
-        <v>0.005838256</v>
+        <v>0.006914672</v>
       </c>
       <c r="N34" t="n">
-        <v>0.001791193</v>
+        <v>0.002028281</v>
       </c>
       <c r="O34" t="n">
         <v>30</v>
@@ -2984,25 +2984,25 @@
         <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001645756</v>
+        <v>0.001633746</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002386696</v>
+        <v>0.002405707</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005308058</v>
+        <v>0.00542072</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002967763</v>
+        <v>0.002944594</v>
       </c>
       <c r="L35" t="n">
-        <v>0.106637625</v>
+        <v>0.108398404</v>
       </c>
       <c r="M35" t="n">
-        <v>0.005665431</v>
+        <v>0.005761315</v>
       </c>
       <c r="N35" t="n">
-        <v>0.001745211</v>
+        <v>0.001742106</v>
       </c>
       <c r="O35" t="n">
         <v>30</v>
@@ -3057,25 +3057,25 @@
         <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001625891</v>
+        <v>0.00161621</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002370609</v>
+        <v>0.0023736</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005293917</v>
+        <v>0.005301925</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002881816</v>
+        <v>0.002890923</v>
       </c>
       <c r="L36" t="n">
-        <v>0.131377582</v>
+        <v>0.133955114</v>
       </c>
       <c r="M36" t="n">
-        <v>0.005664369</v>
+        <v>0.005752286</v>
       </c>
       <c r="N36" t="n">
-        <v>0.001741947</v>
+        <v>0.001738167</v>
       </c>
       <c r="O36" t="n">
         <v>30</v>
@@ -3130,25 +3130,25 @@
         <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001651203</v>
+        <v>0.001614505</v>
       </c>
       <c r="I37" t="n">
-        <v>0.002401149</v>
+        <v>0.002392646</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005307995</v>
+        <v>0.005323192</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002892657</v>
+        <v>0.002939687</v>
       </c>
       <c r="L37" t="n">
-        <v>0.15915928</v>
+        <v>0.160052024</v>
       </c>
       <c r="M37" t="n">
-        <v>0.005795216</v>
+        <v>0.005772463</v>
       </c>
       <c r="N37" t="n">
-        <v>0.001792249</v>
+        <v>0.001760025</v>
       </c>
       <c r="O37" t="n">
         <v>30</v>

--- a/SchemeIBMEMR/SchemeIBMEMR.xlsx
+++ b/SchemeIBMEMR/SchemeIBMEMR.xlsx
@@ -575,25 +575,25 @@
         <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001654742</v>
+        <v>0.001625274</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002404746</v>
+        <v>0.002367335</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005326773</v>
+        <v>0.005196354</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002945261</v>
+        <v>0.002886623</v>
       </c>
       <c r="L2" t="n">
-        <v>0.029164355</v>
+        <v>0.028317596</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00565699</v>
+        <v>0.005544122</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001677407</v>
+        <v>0.001653642</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
@@ -648,25 +648,25 @@
         <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00168774</v>
+        <v>0.001548579</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002460113</v>
+        <v>0.002241499</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005461494</v>
+        <v>0.005025728</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003027412</v>
+        <v>0.002769316</v>
       </c>
       <c r="L3" t="n">
-        <v>0.056747701</v>
+        <v>0.052262968</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005745004</v>
+        <v>0.00531761</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001772971</v>
+        <v>0.001597444</v>
       </c>
       <c r="O3" t="n">
         <v>30</v>
@@ -721,25 +721,25 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001599965</v>
+        <v>0.001593833</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002315873</v>
+        <v>0.002293281</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005165179</v>
+        <v>0.005118344</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002851164</v>
+        <v>0.002783892</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07965391300000001</v>
+        <v>0.078863165</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005457861</v>
+        <v>0.005464372</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001669071</v>
+        <v>0.001671333</v>
       </c>
       <c r="O4" t="n">
         <v>30</v>
@@ -794,25 +794,25 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001631776</v>
+        <v>0.001626632</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002390885</v>
+        <v>0.00235802</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005271708</v>
+        <v>0.005144256</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002936291</v>
+        <v>0.002859628</v>
       </c>
       <c r="L5" t="n">
-        <v>0.107400755</v>
+        <v>0.106344191</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005684423</v>
+        <v>0.005658697</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001737281</v>
+        <v>0.001711755</v>
       </c>
       <c r="O5" t="n">
         <v>30</v>
@@ -867,25 +867,25 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00161115</v>
+        <v>0.001577265</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002359716</v>
+        <v>0.00229975</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005265629</v>
+        <v>0.005074011</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002908749</v>
+        <v>0.002767335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.132708071</v>
+        <v>0.128077902</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005651966</v>
+        <v>0.005452586</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001727684</v>
+        <v>0.001694621</v>
       </c>
       <c r="O6" t="n">
         <v>30</v>
@@ -940,25 +940,25 @@
         <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001641542</v>
+        <v>0.001590096</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002341441</v>
+        <v>0.002330322</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005233904</v>
+        <v>0.00510758</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002897703</v>
+        <v>0.002840181</v>
       </c>
       <c r="L7" t="n">
-        <v>0.15894777</v>
+        <v>0.155652529</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005714775</v>
+        <v>0.005622969</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00178331</v>
+        <v>0.001731952</v>
       </c>
       <c r="O7" t="n">
         <v>30</v>
@@ -1013,25 +1013,25 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001619488</v>
+        <v>0.001598583</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002395237</v>
+        <v>0.002352242</v>
       </c>
       <c r="J8" t="n">
-        <v>0.005259416</v>
+        <v>0.005289533</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002906837</v>
+        <v>0.002907769</v>
       </c>
       <c r="L8" t="n">
-        <v>0.028714893</v>
+        <v>0.028597332</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005614524</v>
+        <v>0.005516746</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00170281</v>
+        <v>0.001665671</v>
       </c>
       <c r="O8" t="n">
         <v>30</v>
@@ -1086,25 +1086,25 @@
         <v>100</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001623746</v>
+        <v>0.001744874</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002351793</v>
+        <v>0.002565442</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005246539</v>
+        <v>0.005733847</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002867646</v>
+        <v>0.003104733</v>
       </c>
       <c r="L9" t="n">
-        <v>0.054906006</v>
+        <v>0.05940605</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005591758</v>
+        <v>0.006096578</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001669851</v>
+        <v>0.001852458</v>
       </c>
       <c r="O9" t="n">
         <v>30</v>
@@ -1159,25 +1159,25 @@
         <v>100</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001604843</v>
+        <v>0.001661419</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002366948</v>
+        <v>0.002418347</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005218087</v>
+        <v>0.005406007</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002883102</v>
+        <v>0.002972938</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08022480799999999</v>
+        <v>0.083537499</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005576206</v>
+        <v>0.005752636</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001701657</v>
+        <v>0.001738415</v>
       </c>
       <c r="O10" t="n">
         <v>30</v>
@@ -1232,25 +1232,25 @@
         <v>100</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001602968</v>
+        <v>0.001517147</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002347711</v>
+        <v>0.002206779</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005243091</v>
+        <v>0.004876007</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002867148</v>
+        <v>0.002702942</v>
       </c>
       <c r="L11" t="n">
-        <v>0.106785983</v>
+        <v>0.100199988</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005607849</v>
+        <v>0.00526605</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001690917</v>
+        <v>0.001615053</v>
       </c>
       <c r="O11" t="n">
         <v>30</v>
@@ -1305,25 +1305,25 @@
         <v>100</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001626327</v>
+        <v>0.001559613</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002407017</v>
+        <v>0.00228504</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005321766</v>
+        <v>0.005048242</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002905133</v>
+        <v>0.002735166</v>
       </c>
       <c r="L12" t="n">
-        <v>0.133004855</v>
+        <v>0.12524451</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005694255</v>
+        <v>0.005339891</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001731837</v>
+        <v>0.001653585</v>
       </c>
       <c r="O12" t="n">
         <v>30</v>
@@ -1378,25 +1378,25 @@
         <v>100</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001698391</v>
+        <v>0.001596079</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002452225</v>
+        <v>0.00233573</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005481702</v>
+        <v>0.005201087</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002999619</v>
+        <v>0.002834586</v>
       </c>
       <c r="L13" t="n">
-        <v>0.164477825</v>
+        <v>0.156863947</v>
       </c>
       <c r="M13" t="n">
-        <v>0.005957795</v>
+        <v>0.005624408</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001810775</v>
+        <v>0.001743462</v>
       </c>
       <c r="O13" t="n">
         <v>30</v>
@@ -1451,25 +1451,25 @@
         <v>100</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001626708</v>
+        <v>0.001661366</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002382242</v>
+        <v>0.002433907</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005327144</v>
+        <v>0.005528172</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002907566</v>
+        <v>0.00305569</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02870538</v>
+        <v>0.029872812</v>
       </c>
       <c r="M14" t="n">
-        <v>0.005585603</v>
+        <v>0.005853191</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00166841</v>
+        <v>0.001734899</v>
       </c>
       <c r="O14" t="n">
         <v>30</v>
@@ -1524,25 +1524,25 @@
         <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001737244</v>
+        <v>0.00156718</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002488617</v>
+        <v>0.00230297</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005614873</v>
+        <v>0.00512737</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003047442</v>
+        <v>0.002782266</v>
       </c>
       <c r="L15" t="n">
-        <v>0.058028196</v>
+        <v>0.052613292</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006031636</v>
+        <v>0.005435592</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001798582</v>
+        <v>0.001618347</v>
       </c>
       <c r="O15" t="n">
         <v>30</v>
@@ -1597,25 +1597,25 @@
         <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001620151</v>
+        <v>0.001506892</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002402624</v>
+        <v>0.002229872</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00531832</v>
+        <v>0.005010245</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002906758</v>
+        <v>0.002775602</v>
       </c>
       <c r="L16" t="n">
-        <v>0.08147017199999999</v>
+        <v>0.076029957</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005640876</v>
+        <v>0.005293952</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001705747</v>
+        <v>0.001590858</v>
       </c>
       <c r="O16" t="n">
         <v>30</v>
@@ -1670,25 +1670,25 @@
         <v>100</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001601328</v>
+        <v>0.001558642</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002328093</v>
+        <v>0.002260104</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005233052</v>
+        <v>0.005059341</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002876614</v>
+        <v>0.002767384</v>
       </c>
       <c r="L17" t="n">
-        <v>0.105564381</v>
+        <v>0.103556945</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005564185</v>
+        <v>0.00547384</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001697623</v>
+        <v>0.001661259</v>
       </c>
       <c r="O17" t="n">
         <v>30</v>
@@ -1743,25 +1743,25 @@
         <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001616512</v>
+        <v>0.001592505</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002393067</v>
+        <v>0.002306396</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005268106</v>
+        <v>0.005135878</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002889517</v>
+        <v>0.002798216</v>
       </c>
       <c r="L18" t="n">
-        <v>0.133543316</v>
+        <v>0.128865121</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005778909</v>
+        <v>0.00545324</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001737878</v>
+        <v>0.001677564</v>
       </c>
       <c r="O18" t="n">
         <v>30</v>
@@ -1816,25 +1816,25 @@
         <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00159885</v>
+        <v>0.001587809</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00235517</v>
+        <v>0.00230268</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005252065</v>
+        <v>0.005131828</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002873794</v>
+        <v>0.002840302</v>
       </c>
       <c r="L19" t="n">
-        <v>0.158804548</v>
+        <v>0.153430316</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005651214</v>
+        <v>0.005456221</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001725123</v>
+        <v>0.001689905</v>
       </c>
       <c r="O19" t="n">
         <v>30</v>
@@ -1889,25 +1889,25 @@
         <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001604592</v>
+        <v>0.001568143</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002329973</v>
+        <v>0.002292128</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005208955</v>
+        <v>0.005144211</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002867492</v>
+        <v>0.002839446</v>
       </c>
       <c r="L20" t="n">
-        <v>0.028144286</v>
+        <v>0.028027232</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005515691</v>
+        <v>0.005488947</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001641373</v>
+        <v>0.001645254</v>
       </c>
       <c r="O20" t="n">
         <v>30</v>
@@ -1962,25 +1962,25 @@
         <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001613432</v>
+        <v>0.001497863</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002364493</v>
+        <v>0.00223155</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005292843</v>
+        <v>0.00496521</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002863537</v>
+        <v>0.002711646</v>
       </c>
       <c r="L21" t="n">
-        <v>0.054579817</v>
+        <v>0.051474202</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005574908</v>
+        <v>0.00529612</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001688645</v>
+        <v>0.001607077</v>
       </c>
       <c r="O21" t="n">
         <v>30</v>
@@ -2035,25 +2035,25 @@
         <v>100</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001645204</v>
+        <v>0.001550207</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002428604</v>
+        <v>0.002276107</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005379173</v>
+        <v>0.005084929</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002968642</v>
+        <v>0.002787382</v>
       </c>
       <c r="L22" t="n">
-        <v>0.082759982</v>
+        <v>0.077638342</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005778366</v>
+        <v>0.005318953</v>
       </c>
       <c r="N22" t="n">
-        <v>0.00174345</v>
+        <v>0.001616614</v>
       </c>
       <c r="O22" t="n">
         <v>30</v>
@@ -2108,25 +2108,25 @@
         <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001634079</v>
+        <v>0.001636094</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002386385</v>
+        <v>0.002405617</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005308427</v>
+        <v>0.005441878</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002930678</v>
+        <v>0.002946127</v>
       </c>
       <c r="L23" t="n">
-        <v>0.108165095</v>
+        <v>0.108468123</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005653781</v>
+        <v>0.005720883</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001721063</v>
+        <v>0.001737305</v>
       </c>
       <c r="O23" t="n">
         <v>30</v>
@@ -2181,25 +2181,25 @@
         <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001646393</v>
+        <v>0.001538214</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002392422</v>
+        <v>0.00223978</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005336744</v>
+        <v>0.004969496</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002936109</v>
+        <v>0.002721336</v>
       </c>
       <c r="L24" t="n">
-        <v>0.134902343</v>
+        <v>0.125566757</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005729445</v>
+        <v>0.005394949</v>
       </c>
       <c r="N24" t="n">
-        <v>0.001791787</v>
+        <v>0.001646391</v>
       </c>
       <c r="O24" t="n">
         <v>30</v>
@@ -2254,25 +2254,25 @@
         <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001683086</v>
+        <v>0.001587361</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002479294</v>
+        <v>0.002335785</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00543671</v>
+        <v>0.005194019</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002988316</v>
+        <v>0.00286078</v>
       </c>
       <c r="L25" t="n">
-        <v>0.162600756</v>
+        <v>0.155148057</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005854045</v>
+        <v>0.005603918</v>
       </c>
       <c r="N25" t="n">
-        <v>0.001794302</v>
+        <v>0.00173063</v>
       </c>
       <c r="O25" t="n">
         <v>30</v>
@@ -2327,25 +2327,25 @@
         <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001869449</v>
+        <v>0.001523816</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002598733</v>
+        <v>0.00224372</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005886604</v>
+        <v>0.005028661</v>
       </c>
       <c r="K26" t="n">
-        <v>0.003219633</v>
+        <v>0.002741373</v>
       </c>
       <c r="L26" t="n">
-        <v>0.032387023</v>
+        <v>0.026878244</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006487755</v>
+        <v>0.00524171</v>
       </c>
       <c r="N26" t="n">
-        <v>0.001863613</v>
+        <v>0.001567735</v>
       </c>
       <c r="O26" t="n">
         <v>30</v>
@@ -2400,25 +2400,25 @@
         <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001879132</v>
+        <v>0.001516164</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002640967</v>
+        <v>0.002231709</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005876558</v>
+        <v>0.005017571</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003200455</v>
+        <v>0.002735516</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06225005</v>
+        <v>0.051550832</v>
       </c>
       <c r="M27" t="n">
-        <v>0.006482012</v>
+        <v>0.005245158</v>
       </c>
       <c r="N27" t="n">
-        <v>0.00190728</v>
+        <v>0.001603127</v>
       </c>
       <c r="O27" t="n">
         <v>30</v>
@@ -2473,25 +2473,25 @@
         <v>100</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001776787</v>
+        <v>0.001545015</v>
       </c>
       <c r="I28" t="n">
-        <v>0.002544379</v>
+        <v>0.002269608</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005705634</v>
+        <v>0.004974454</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003143114</v>
+        <v>0.002755318</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08773289099999999</v>
+        <v>0.077041184</v>
       </c>
       <c r="M28" t="n">
-        <v>0.006087948</v>
+        <v>0.005330445</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001868331</v>
+        <v>0.00162385</v>
       </c>
       <c r="O28" t="n">
         <v>30</v>
@@ -2546,25 +2546,25 @@
         <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001670351</v>
+        <v>0.001578207</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002469648</v>
+        <v>0.002323431</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005450869</v>
+        <v>0.00515701</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00302432</v>
+        <v>0.002807459</v>
       </c>
       <c r="L29" t="n">
-        <v>0.11068726</v>
+        <v>0.104314782</v>
       </c>
       <c r="M29" t="n">
-        <v>0.005804449</v>
+        <v>0.005479656</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001745638</v>
+        <v>0.001669348</v>
       </c>
       <c r="O29" t="n">
         <v>30</v>
@@ -2619,25 +2619,25 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>0.001709037</v>
+        <v>0.001507532</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002510872</v>
+        <v>0.00221731</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005563199</v>
+        <v>0.004920774</v>
       </c>
       <c r="K30" t="n">
-        <v>0.003045885</v>
+        <v>0.002705926</v>
       </c>
       <c r="L30" t="n">
-        <v>0.139595003</v>
+        <v>0.125117807</v>
       </c>
       <c r="M30" t="n">
-        <v>0.005928251</v>
+        <v>0.005290881</v>
       </c>
       <c r="N30" t="n">
-        <v>0.001799966</v>
+        <v>0.001633398</v>
       </c>
       <c r="O30" t="n">
         <v>30</v>
@@ -2692,25 +2692,25 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001958261</v>
+        <v>0.001653945</v>
       </c>
       <c r="I31" t="n">
-        <v>0.002799951</v>
+        <v>0.002422289</v>
       </c>
       <c r="J31" t="n">
-        <v>0.006252444</v>
+        <v>0.005355423</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003380498</v>
+        <v>0.002917031</v>
       </c>
       <c r="L31" t="n">
-        <v>0.185194353</v>
+        <v>0.159755863</v>
       </c>
       <c r="M31" t="n">
-        <v>0.006736395</v>
+        <v>0.005773736</v>
       </c>
       <c r="N31" t="n">
-        <v>0.002095463</v>
+        <v>0.001813463</v>
       </c>
       <c r="O31" t="n">
         <v>30</v>
@@ -2765,25 +2765,25 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001902431</v>
+        <v>0.001736552</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002804763</v>
+        <v>0.002555597</v>
       </c>
       <c r="J32" t="n">
-        <v>0.006327897</v>
+        <v>0.00574193</v>
       </c>
       <c r="K32" t="n">
-        <v>0.003424589</v>
+        <v>0.003146067</v>
       </c>
       <c r="L32" t="n">
-        <v>0.034467889</v>
+        <v>0.031022233</v>
       </c>
       <c r="M32" t="n">
-        <v>0.006706573</v>
+        <v>0.006060442</v>
       </c>
       <c r="N32" t="n">
-        <v>0.001959168</v>
+        <v>0.001818525</v>
       </c>
       <c r="O32" t="n">
         <v>30</v>
@@ -2838,25 +2838,25 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002153394</v>
+        <v>0.0015741</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002941596</v>
+        <v>0.002289527</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006698932</v>
+        <v>0.005076498</v>
       </c>
       <c r="K33" t="n">
-        <v>0.003730056</v>
+        <v>0.002786625</v>
       </c>
       <c r="L33" t="n">
-        <v>0.070617306</v>
+        <v>0.053188024</v>
       </c>
       <c r="M33" t="n">
-        <v>0.007133607</v>
+        <v>0.00546862</v>
       </c>
       <c r="N33" t="n">
-        <v>0.002130459</v>
+        <v>0.001625098</v>
       </c>
       <c r="O33" t="n">
         <v>30</v>
@@ -2911,25 +2911,25 @@
         <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>0.001984696</v>
+        <v>0.00154597</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002911172</v>
+        <v>0.002261346</v>
       </c>
       <c r="J34" t="n">
-        <v>0.006354228</v>
+        <v>0.004998426</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003576751</v>
+        <v>0.002732868</v>
       </c>
       <c r="L34" t="n">
-        <v>0.09608570700000001</v>
+        <v>0.07688257599999999</v>
       </c>
       <c r="M34" t="n">
-        <v>0.006914672</v>
+        <v>0.005331815</v>
       </c>
       <c r="N34" t="n">
-        <v>0.002028281</v>
+        <v>0.001623694</v>
       </c>
       <c r="O34" t="n">
         <v>30</v>
@@ -2984,25 +2984,25 @@
         <v>100</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001633746</v>
+        <v>0.001579963</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002405707</v>
+        <v>0.002351913</v>
       </c>
       <c r="J35" t="n">
-        <v>0.00542072</v>
+        <v>0.005087541</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002944594</v>
+        <v>0.002775377</v>
       </c>
       <c r="L35" t="n">
-        <v>0.108398404</v>
+        <v>0.102478468</v>
       </c>
       <c r="M35" t="n">
-        <v>0.005761315</v>
+        <v>0.005473781</v>
       </c>
       <c r="N35" t="n">
-        <v>0.001742106</v>
+        <v>0.001671904</v>
       </c>
       <c r="O35" t="n">
         <v>30</v>
@@ -3057,25 +3057,25 @@
         <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00161621</v>
+        <v>0.001606725</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0023736</v>
+        <v>0.002319026</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005301925</v>
+        <v>0.00507872</v>
       </c>
       <c r="K36" t="n">
-        <v>0.002890923</v>
+        <v>0.002824052</v>
       </c>
       <c r="L36" t="n">
-        <v>0.133955114</v>
+        <v>0.130181023</v>
       </c>
       <c r="M36" t="n">
-        <v>0.005752286</v>
+        <v>0.005567388</v>
       </c>
       <c r="N36" t="n">
-        <v>0.001738167</v>
+        <v>0.001683876</v>
       </c>
       <c r="O36" t="n">
         <v>30</v>
@@ -3130,25 +3130,25 @@
         <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001614505</v>
+        <v>0.001596428</v>
       </c>
       <c r="I37" t="n">
-        <v>0.002392646</v>
+        <v>0.002325894</v>
       </c>
       <c r="J37" t="n">
-        <v>0.005323192</v>
+        <v>0.005227188</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002939687</v>
+        <v>0.002850648</v>
       </c>
       <c r="L37" t="n">
-        <v>0.160052024</v>
+        <v>0.1564965</v>
       </c>
       <c r="M37" t="n">
-        <v>0.005772463</v>
+        <v>0.005658287</v>
       </c>
       <c r="N37" t="n">
-        <v>0.001760025</v>
+        <v>0.001758797</v>
       </c>
       <c r="O37" t="n">
         <v>30</v>
